--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1405557.091762621</v>
+        <v>1455478.135194523</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16641689.1079871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484455</v>
+        <v>492028.9342484437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6615332.752889538</v>
+        <v>6637278.379389309</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>332.4291174559668</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>160.0700275716639</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>220.2736181911122</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>142.0902352657462</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>310.6883293919657</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>430.4313829879808</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1145,10 +1145,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>321.6116120327222</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>145.2365718451153</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426774</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>236.5068966114182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>61.23284287475791</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>103.828474294603</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>412.2077022164174</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>173.7950029088905</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>10.04027365719955</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>219.514140621475</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>165.7499153537892</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864818</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>20.28369113775142</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>67.65667327773693</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>18.227720276593</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>56.63677140718741</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2302,10 +2302,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.9879808696989</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>47.61404849749868</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481285</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946032</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>193.1657375857779</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3190,22 +3190,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>109.1426757626849</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225762</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830457</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>135.6786012922739</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>48.28314334362825</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3755,10 +3755,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>18.64034175572749</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3898,16 +3898,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>67.68074767021362</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>222.7230087310191</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>33.08339867820506</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>54.66258501924924</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>222.6988144892033</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1375.106065423632</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439876</v>
+        <v>1341.003996647459</v>
       </c>
       <c r="D2" t="n">
-        <v>393.5576814812559</v>
+        <v>1309.134615862308</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>875.3598710206027</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>447.4924414298105</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307434</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307434</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>610.9408515978669</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>610.9408515978669</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1568.238183299066</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299066</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.73696925766</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194554</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194554</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1941.016857511571</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1578.399907445398</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1416.713010908363</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1401.610951528078</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1397.365231868135</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400187</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067194</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245367</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>952.1742697753206</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>274.2399442151645</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>446.7794456117043</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>906.2633127926173</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1348.522115950262</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1768.191365176044</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2115.698259146385</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>2061.392429777271</v>
       </c>
       <c r="W4" t="n">
-        <v>1675.765608785789</v>
+        <v>1789.366025363562</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1543.974270696975</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1316.554600011083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.541784186435</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1380.298400881886</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.797825151298</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1206.77142073759</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>961.3796660710025</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>770.2951201027763</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C8" t="n">
-        <v>736.1930513266036</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>704.3236705414522</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>674.5893297401515</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>650.7623041897633</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152964</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105242</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1382.132025509618</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1837.184726808712</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1579.374470242648</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1216.757520176475</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9020655875079</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>796.8000062072226</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>792.5542865472801</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>695.7008790724198</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>523.1391675556447</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>523.1391675556447</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>353.3811638063819</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>176.6741097681381</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681381</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>115.5076093387762</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>390.2660639099117</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>808.4759456778728</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>808.4759456778728</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1250.734748835517</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061299</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061299</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925631</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1551.641264796062</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1279.614860382353</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1034.223105715766</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>887.5194977914068</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.51439535199</v>
+        <v>2034.581622478953</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1598.671837653397</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1164.897092811692</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874947</v>
+        <v>737.0296632209001</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>335.6318318441636</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653474</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>1071.767500933669</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>899.2057894168938</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1736.397545005135</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1491.005790338548</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1263.586119652656</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2511.879170851551</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245547</v>
+        <v>2073.736698034975</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1637.826913209419</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1204.052168367714</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874949</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693461</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693461</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263767</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097163</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055758</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245813</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3346.464865036806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2938.178741336459</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.8119928040992</v>
+        <v>1035.891962983371</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>863.330251466596</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,7 +5458,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
         <v>2532.736396587283</v>
@@ -5476,10 +5476,10 @@
         <v>1449.442036875566</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1227.710581702358</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230864</v>
+        <v>1227.710581702358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245547</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940404</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940404</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940404</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.83610851071</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363476</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1010.202862318824</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C19" t="n">
-        <v>837.6411508020487</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7631580035716</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>502.0051542543088</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>325.2981002160653</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289286</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2512.247819680463</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2233.814818933568</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1946.859310803999</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1674.83290639029</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X19" t="n">
-        <v>1429.441151723703</v>
+        <v>1434.679297489063</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.021481037811</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351989</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939365</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>115.5646047172004</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>403.2461837293656</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1237.596475687543</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940403</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940403</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940403</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510709</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344105</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.6447693027</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239594</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112632</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429649</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363475</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774509</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.24256235382</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653473</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415727</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.134188067672</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C22" t="n">
-        <v>914.5724765508969</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D22" t="n">
-        <v>748.6944837524196</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031568</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>402.2294259649129</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907406</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111513</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170193</v>
+        <v>1676.191041204864</v>
       </c>
       <c r="X22" t="n">
-        <v>1470.859858170193</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.952806786659</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="23">
@@ -6063,10 +6063,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903955</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736204</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751431</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937637</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.8971520785113</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292486</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1978.073275058211</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.655115977915</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937637</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>441.0680908387449</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,52 +6935,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.77365348828</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698831</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573036</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7363,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1978.073275058211</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.655115977915</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1248.965051073967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>516.9624360939397</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>115.5646047172036</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2758.053686176683</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1011.560997133399</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C43" t="n">
-        <v>838.9992856166232</v>
+        <v>737.865422512653</v>
       </c>
       <c r="D43" t="n">
-        <v>673.1212928181459</v>
+        <v>571.9874297141757</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>402.229425964913</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878951</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T43" t="n">
-        <v>2451.623182457407</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U43" t="n">
-        <v>2173.190181710512</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V43" t="n">
-        <v>1948.217445618573</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W43" t="n">
-        <v>1676.191041204865</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X43" t="n">
-        <v>1430.799286538278</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y43" t="n">
-        <v>1203.379615852386</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2758.053686176684</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176684</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580387</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457407</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710512</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1749.292858917088</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1503.901104250501</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>395.9942432157037</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320323</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>405.1531564964545</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>1.426309209009787</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>79.53098371743793</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,7 +8617,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,7 +8626,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,7 +8693,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,13 +8933,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>309.6062697457075</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.0111327346225</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.73195639979772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>11.38105307846689</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>185.1957776566212</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>23.42369649844667</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.1369608195779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>201.6494670918345</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>268.0111327346229</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>219.0118993322383</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.15749310933393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>120.4463752142714</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>84.63380825304849</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>90.92021546249592</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>35.15749310933339</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>227.3655273957975</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.5985112554884</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>61.36294431725478</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>49.7319563997963</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.446659489829472</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>575218.9790756312</v>
+        <v>578227.4260257239</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>575218.9790756312</v>
+        <v>580207.5798986981</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>575944.1009883782</v>
+        <v>580207.5798986981</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>556589.4969092192</v>
+        <v>556589.4969092193</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556589.4969092192</v>
+        <v>556589.4969092194</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>556589.4969092193</v>
+        <v>580078.20970364</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>556589.4969092192</v>
+        <v>580078.2097036401</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>580078.20970364</v>
+        <v>556589.4969092193</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>580078.20970364</v>
+        <v>556589.4969092194</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="C2" t="n">
         <v>375303.123923286</v>
@@ -26323,13 +26323,13 @@
         <v>353866.7285801735</v>
       </c>
       <c r="F2" t="n">
-        <v>353866.7285801736</v>
+        <v>353866.7285801735</v>
       </c>
       <c r="G2" t="n">
-        <v>353866.7285801735</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
-        <v>353866.7285801734</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
         <v>368800.3088961467</v>
@@ -26338,7 +26338,7 @@
         <v>368800.3088961467</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
         <v>368800.3088961467</v>
@@ -26350,10 +26350,10 @@
         <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>368800.3088961467</v>
+        <v>353866.7285801737</v>
       </c>
       <c r="P2" t="n">
-        <v>368800.3088961467</v>
+        <v>353866.7285801737</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745914</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520277</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18928.52796216466</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.596425675</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393336</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.986610468</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.309604032037948e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>150872.0522070762</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932127</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="G4" t="n">
-        <v>26563.08616012788</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>26563.08616012788</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26448,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="N4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27684.07875020268</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020268</v>
+        <v>26563.08616012789</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.7437169629</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>73519.34227764755</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7745.351334108505</v>
+        <v>-35257.77574844641</v>
       </c>
       <c r="C6" t="n">
-        <v>134445.9493256015</v>
+        <v>139143.2641920493</v>
       </c>
       <c r="D6" t="n">
-        <v>128680.5760096016</v>
+        <v>170333.2991295085</v>
       </c>
       <c r="E6" t="n">
-        <v>29985.00639037033</v>
+        <v>91972.66637748675</v>
       </c>
       <c r="F6" t="n">
-        <v>253784.3001423982</v>
+        <v>253707.7415876013</v>
       </c>
       <c r="G6" t="n">
-        <v>253784.300142398</v>
+        <v>244446.2392386042</v>
       </c>
       <c r="H6" t="n">
-        <v>253784.300142398</v>
+        <v>263374.7672007688</v>
       </c>
       <c r="I6" t="n">
-        <v>245033.2759073118</v>
+        <v>263374.7672007689</v>
       </c>
       <c r="J6" t="n">
-        <v>152383.5261951613</v>
+        <v>113983.1707750938</v>
       </c>
       <c r="K6" t="n">
-        <v>263397.9915401515</v>
+        <v>238527.8304168354</v>
       </c>
       <c r="L6" t="n">
-        <v>254450.380451642</v>
+        <v>263374.7672007688</v>
       </c>
       <c r="M6" t="n">
-        <v>76607.00492968359</v>
+        <v>128384.8225877655</v>
       </c>
       <c r="N6" t="n">
-        <v>263397.9915401515</v>
+        <v>263374.7672007688</v>
       </c>
       <c r="O6" t="n">
-        <v>263397.9915401515</v>
+        <v>253707.7415876014</v>
       </c>
       <c r="P6" t="n">
-        <v>263397.9915401515</v>
+        <v>253707.7415876014</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825316</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080615</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825314</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825316</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>97.00787993732098</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>240.7368724714131</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27594,13 +27594,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>63.8123348571616</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>100.8476018541754</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>104.2627093945167</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27822,16 +27822,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>3.329665100430077</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>75.77224103024651</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>79.90890213391745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>395.9942432157037</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320323</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>405.1531564964545</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>1.426309209009787</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>79.53098371743793</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,7 +35337,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,7 +35413,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,13 +35653,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>309.6062697457075</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,10 +37324,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -38193,7 +38193,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
